--- a/biology/Médecine/Lâadi_Flici/Lâadi_Flici.xlsx
+++ b/biology/Médecine/Lâadi_Flici/Lâadi_Flici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lâadi Flici, né le 12 novembre 1937 à Alger, au cœur de  la Casbah d'Alger, est assassiné dans son cabinet à Djamaa Lihoud dans la Casbah  le 17 mars 1993.
-Ancien détenu politique. Ancien président de la section universitaire du FLN. Ancien président du Comité exécutif de l'UGEMA. Responsable de l'Union nationale des étudiants algériens (UNEA) durant les premières années d'indépendance de l'Algérie (après 1962). Membre du Conseil consultatif national (CCN) mis en place par le pouvoir au début des années 1990. Docteur en médecine (pédiatre), conférencier, écrivain, romancier, essayiste et nouvelliste[1]. Membre fondateur de l'Union des Écrivains algériens, Membre du jury lors du premier Festival national du théâtre Professionnel, du 16 au 26 septembre 1985 au Théâtre national algérien (TNA). A reçu le Grand prix international de littérature consacré à la ville d’Alger en 1987.
-Le Théâtre de Verdure d'Alger porte son nom[2].
+Ancien détenu politique. Ancien président de la section universitaire du FLN. Ancien président du Comité exécutif de l'UGEMA. Responsable de l'Union nationale des étudiants algériens (UNEA) durant les premières années d'indépendance de l'Algérie (après 1962). Membre du Conseil consultatif national (CCN) mis en place par le pouvoir au début des années 1990. Docteur en médecine (pédiatre), conférencier, écrivain, romancier, essayiste et nouvelliste. Membre fondateur de l'Union des Écrivains algériens, Membre du jury lors du premier Festival national du théâtre Professionnel, du 16 au 26 septembre 1985 au Théâtre national algérien (TNA). A reçu le Grand prix international de littérature consacré à la ville d’Alger en 1987.
+Le Théâtre de Verdure d'Alger porte son nom.
 Il fait partie des toutes premières victimes du terrorisme tombées entre mars et juin 1993 après sa candidature législative.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boualem Flici, père de Lâadi, et fils d’Abdelkader et de Baya Dib, est né le 28 février 1899 à Alger et mort le 26 février 1988. Marchand de légumes au marché Nelson à la Casbah d'Alger et ancien secrétaire au trésor de l'association des Oulémas musulmans algériens (dirigée par le cheikh Abdelhamid Ben Badis), il épouse Laldja Djouhri, originaire de la petite Kabylie, et aînée de 7 garçons.
 Tout comme ses 8 frères et sœurs, dont il était le sixième, Lâadi est très tôt imprégné de la magie des rues de la Casbah. Elève plutôt moyen, car totalement désintéressé de l’école, Lâadi a, jusqu’à ses treize ans, passé la plupart de son temps à jouer à la « Roulma » (des skates improvisés, fabriqués à l’aide de morceaux de bois disposés en croix amovibles, sur des roulettes à billes, sur laquelle il faut s’accroupir et être poussé pour entamer, généralement, des pentes plutôt dangereuses), et à errer dans les rues de la Casbah. Curieux et plein de vie, tout en étant discret et timide, Lâadi était un enfant attachant, sensible et bienveillant, des qualités qu’il a su garder et enrichir tout au long de sa vie.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lâadi Flici fait ses études à Alger. Le 6 juin 1952, il obtient son certificat d’études primaires délivré par l’école Gambetta Groupe, ainsi que son brevet sportif scolaire de l’enseignement du premier degré, le 20 juin de la même année. Très jeune, alors élève à l’école Sarrouy, rue Montpensier, près de la Casbah d’Alger, Lâadi avait d’autre préoccupation que d’aller à l’école, comme s’engager pleinement dans la lutte de libération nationale. « Je n’allais à l’école qu’en début d’année » ironisait-il. Lâadi finit donc par  interrompre ses études en 1954 pour s'activer, dans un premier temps, au sein de l’Union de la jeunesse démocratique algérienne (UJDA), qui siégeait au 8 Rue Bab-Azoune. Il adhère, en parallèle, à la branche de la jeunesse communiste, ainsi qu’au  mouvement du journal « Alger Républicain ». Après son incarcération en 1956, à la prison Barberousse (actuellement Serkadji), il décide de commencer ses études de médecine, qu’il entame dès lors, avant de les interrompre durant une année, de 1962 à 1963. Durant cette année, il occupe le poste de conseiller de Kaid Ahmed.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné de théâtre, sans en avoir jamais fait, Lâadi, âgé d’à peine 17 ans, passait son temps à écrire des pièces théâtrales que ses amis interprétaient, sans grande conviction. Pour eux, ce n’était qu’un jeu, des moments de rire et de joie qu’ils partageaient au square Montpensier. Lâadi lui, était à cheval sur l’interprétation et la gestuelle, alors qu’il n’avait encore jamais mis les pieds dans un théâtre. Quelques années plus tard, Lâadi écrira nombre de pièces théâtrales, mises en scène et interprétées.  Il a même fait partie des membres du jury lors du premier Festival national du Théâtre professionnel, du 16 au 26 septembre 1985 au Théâtre national algérien (TNA). Une passion que Lâadi a su vivre jusqu’au bout, avec beaucoup de talent  et de succès incontestables. « Mes camarades de l’école Sarrouy et moi-même avons découvert toutes les valeurs et les passions de la jeunesse grâce à Lâadi Flici. La poésie, la musique chaâbi, le théâtre, la boxe, la politique, le patriotisme, c’est à lui que nous devons nos premiers engagements » témoigne Ali Mabtouche, son ami de toujours. Passionné de sport, le football occupait une grande place, tant dans son cœur qu’au bout de sa plume. Pour lui, cette discipline était la continuité de la Révolution du peuple algérien contre la répression et la Hogra, qui se passait sur une pelouse, autour d’un ballon et non sous les feux et la cruauté de la rue. Une victoire du Mouloudia d'Alger contre les clubs français représentait, pour lui, une victoire symbolique d’un peuple réprimé contre l’ogre colonisateur. Son autre sport fétiche était la boxe, qu’il pratiquait sous les voûtes de la place du gouvernement où il apprit à croiser les gants sous la houlette d’Ammi (l’oncle) Tahar du Boxing club algérois.
 Engagé sur la scène littérature, Lâadi Flici  sera membre fondateur de la première Union des écrivains algériens (UEA) créée  le 28 octobre 1963, une instance qui comptera à sa création des membres comme Mouloud Mammeri qui en été le président, Jean Sénac (secrétaire général), Kaddour M'Hamsadji (secrétaire général adjoint), Mourad Bourboune ou Ahmed Sefta. Il est aussi vice président du conseil de l’association El Ankaouiya, présidée par feu Boujemaa Mohamed dit El Ankiss, et membre du comité de mélomanes de cette même association culturelle, artistique et populaire, dont la demande d’agrément fut déposée en juin 1982.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Militantisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Enfant de la Casbah, Lâadi Flici est depuis sa tendre enfance, imprégné d’un patriotisme ardent. Modeste, timide et discret, préférant écouter que parler, Lâadi est pourtant un meneur d’hommes. Son parcours patriotique n’est pas très connu, même de ses proches. Il n’évoquait que rarement, que cela soit dans ses écrits ou avec ses amis, son passé de militant. Ce sont ses camarades et ses compagnons de guerre qui rapporteront l’essentiel de son parcours patriotique. C’est en 1954, alors âgé de  17 ans, que Lâadi rejoint l'Union de la Jeunesse démocratique algérienne (Ujda), une branche de la jeunesse communiste, ou plus exactement, une association de jeunes encadrée par les communistes. Dans son militantisme, Lâadi a décidé d’impliquer les jeunes de la Casbah, et plus précisément ceux de son école « Sarrouy ». Un jour, il improvise une réunion, où il monopolise l’attention de tous ses camarades pour leur faire part de son grand et important projet pour eux. « Il faut qu’on s’engage » dit-il. Il poursuit en leur parlant de l’Ujda, première organisation de jeunesse d’Algérie, tout en détaillant l’objectif de s’allier à une association chapeautée par des communistes. Il leur parle alors des dirigeants et des objectifs du parti communiste algérien (PCA), tel qu’Henri Maillot, Henri Alleg (voir son livre la Question), Belkacem Hannoun, Mustapha Saâdoun et bien d’autres. Quant à l’objectif à long terme de Lâadi, il était d’essayer de rallier à sa cause le maximum de ses camarades et de ses compagnons de la Casbah pour créer un noyau latent au cœur même de la Casbah, de les former et de les préparer pour que, le moment venu, ils soient prêts à prendre les armes. Lâadi les a, par la suite, entraînés avec lui au « coin du jeudi », un espace de formation politique et de militantisme organisé par Alger Républicain, où il militait depuis quelques mois.
 Essentiellement formée de militants mineurs, les activités des membres de l’Ujda résidaient dans la distribution active de tracts imprimés au journal Alger Républicain. Ces jeunes dévoués ont, parmi d’autres, abouti à jouer un grand rôle d’information et de persuasion, appelant à une mobilisation totale et irréfutable, lors de la grève générale du 19 mai 1956. L’idée était d’interdire l’accès aux écoles et aux lycées de la capitale, et d’encourager les jeunes à répondre favorablement à l’appel d’Alger.
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Médecin des pauvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1964, Lâadi reprend ses études de médecine. Il soutient sa thèse de Doctorat en 1967, pour enchaîner avec une année de spécialité en psychiatrie, avant de changer pour la pédiatrie. Il exerce des années durant à l’hôpital Mustapha Pacha, puis à l'hôpital Parnet (appelé ensuite Nafissa Hamoud), avant de s’installer, et d’ouvrir son propre cabinet au 24 Rue Amar Ali. Il aimait les enfants, et faisait tout ce qu’il pouvait pour les soigner. Il se portait même volontaire pour accompagner ceux qui en avaient besoin dans leur quotidien. Il prenait sous son aile des enfants en détresse, les soutenait et les encourageait dans leur cursus scolaire. Il comprenait les besoins des adolescents et avait de l’empathie pour les jeunes chômeurs. Pour l’anecdote, Lâadi garait sa voiture devant son cabinet, alors qu’il  y avait un garage à 200 mètres, mais il n’avait pas peur de se faire voler, ou voir sa tôlerie abîmée, car il savait que sa voiture ne risquait rien. En réalité, sa voiture était là pour sa malle, qu’il laissait ouverte pour les vendeurs de tabac à la sauvette. Quand la police arrivait, ils ouvraient sa malle et cachaient leur marchandise à l’intérieur.
 Surnommé « le médecin des pauvres», Lâadi avait sa propre astuce. Connaissant le caractère orgueilleux des habitants de la Casbah d'Alger, il ne prenait jamais le risque de ne pas faire payer ses patients nécessiteux, les femmes en particulier, et plus spécialement les vielles femmes qui comptaient, avec leurs enfants et petits enfants, le plus grand nombre de ses patients.
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>L’homme de lettres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L’écriture de Lâadi Flici ne se départ jamais de la douceur rythmée du verbe, répétitive, suggestive et prenante. Le stylo est sa première arme et la Casbah d'Alger sa passion. Il a commencé à sentir la nécessité d’écrire quand il a été incarcéré en 1956, à Serkadji. C’est ce qu’il confie à Ferhat Cherkit, un de ses amis, assassiné lui aussi par le terrorisme islamiste le 7 juin 1994. Lâadi disait que « L'isolement crée la nécessité de communiquer, la nécessité de dire, en tant que prisonnier, certaines choses aux non-prisonniers. Le prisonnier détient une vérité, c’est pour cela qu’il est enfermé d’ailleurs (El Moudjahid du 25 juin 1985) ». Cette nécessité qu’il souligne, fait qu’il soit « entré en littérature comme on entre en sacerdoce, avec la ferveur du néophyte », note encore Cherkit. Puis, il a rencontré dans la salle 9 de Serkadji, Moufdi Zakaria, l’écrivain de l'hymne national algérien (Kassamen). Un homme qui l’a marqué.
 Sa vocation de poète aurait donc germé pendant les années de détention. Son œuvre se situe au confluent de deux courants poétiques, celui représenté par Kateb Yacine et Malek Haddad, d’une part, et Jean Sénac et Mohammed Dib de l’autre, mais elle a su trouver sa propre voix.
@@ -698,7 +722,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L%C3%A2adi_Flici</t>
+          <t>Lâadi_Flici</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,7 +740,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La passion humaine, Éditions J. Millias-Martin‚ Paris‚ 1956
 La démesure et le royaume, Éditions SNED‚ Alger‚ 1969
